--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vegfa-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vegfa-Nrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.847215666666667</v>
+        <v>3.062550666666667</v>
       </c>
       <c r="H2">
-        <v>11.541647</v>
+        <v>9.187652</v>
       </c>
       <c r="I2">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="J2">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N2">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O2">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P2">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q2">
-        <v>391.6132520854508</v>
+        <v>266.1215917423725</v>
       </c>
       <c r="R2">
-        <v>3524.519268769057</v>
+        <v>2395.094325681352</v>
       </c>
       <c r="S2">
-        <v>0.01536985212799895</v>
+        <v>0.02190362889211156</v>
       </c>
       <c r="T2">
-        <v>0.01536985212799895</v>
+        <v>0.02190362889211156</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.847215666666667</v>
+        <v>3.062550666666667</v>
       </c>
       <c r="H3">
-        <v>11.541647</v>
+        <v>9.187652</v>
       </c>
       <c r="I3">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="J3">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>163.038635</v>
       </c>
       <c r="O3">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P3">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q3">
-        <v>209.0815969479828</v>
+        <v>166.4380267705578</v>
       </c>
       <c r="R3">
-        <v>1881.734372531845</v>
+        <v>1497.94224093502</v>
       </c>
       <c r="S3">
-        <v>0.008205935858052038</v>
+        <v>0.01369898905251876</v>
       </c>
       <c r="T3">
-        <v>0.008205935858052038</v>
+        <v>0.01369898905251875</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.847215666666667</v>
+        <v>3.062550666666667</v>
       </c>
       <c r="H4">
-        <v>11.541647</v>
+        <v>9.187652</v>
       </c>
       <c r="I4">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="J4">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N4">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O4">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P4">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q4">
-        <v>470.3385915922951</v>
+        <v>186.5890119389942</v>
       </c>
       <c r="R4">
-        <v>4233.047324330656</v>
+        <v>1679.301107450948</v>
       </c>
       <c r="S4">
-        <v>0.01845962710497723</v>
+        <v>0.01535755308728963</v>
       </c>
       <c r="T4">
-        <v>0.01845962710497723</v>
+        <v>0.01535755308728963</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.847215666666667</v>
+        <v>3.062550666666667</v>
       </c>
       <c r="H5">
-        <v>11.541647</v>
+        <v>9.187652</v>
       </c>
       <c r="I5">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="J5">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N5">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O5">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P5">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q5">
-        <v>35.79721326173778</v>
+        <v>23.91750496069555</v>
       </c>
       <c r="R5">
-        <v>322.17491935564</v>
+        <v>215.25754464626</v>
       </c>
       <c r="S5">
-        <v>0.001404952134529141</v>
+        <v>0.001968574399598029</v>
       </c>
       <c r="T5">
-        <v>0.001404952134529141</v>
+        <v>0.001968574399598029</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.847215666666667</v>
+        <v>3.062550666666667</v>
       </c>
       <c r="H6">
-        <v>11.541647</v>
+        <v>9.187652</v>
       </c>
       <c r="I6">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="J6">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N6">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O6">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P6">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q6">
-        <v>289.0687129066447</v>
+        <v>189.1368703406209</v>
       </c>
       <c r="R6">
-        <v>2601.618416159803</v>
+        <v>1702.231833065588</v>
       </c>
       <c r="S6">
-        <v>0.01134523244181904</v>
+        <v>0.01556725927660517</v>
       </c>
       <c r="T6">
-        <v>0.01134523244181903</v>
+        <v>0.01556725927660517</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>53.22644</v>
       </c>
       <c r="I7">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="J7">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N7">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O7">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P7">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q7">
-        <v>1805.996948731071</v>
+        <v>1541.711085223938</v>
       </c>
       <c r="R7">
-        <v>16253.97253857964</v>
+        <v>13875.39976701544</v>
       </c>
       <c r="S7">
-        <v>0.07088091605121942</v>
+        <v>0.1268933770029864</v>
       </c>
       <c r="T7">
-        <v>0.07088091605121942</v>
+        <v>0.1268933770029864</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>53.22644</v>
       </c>
       <c r="I8">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="J8">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>163.038635</v>
       </c>
       <c r="O8">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P8">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q8">
         <v>964.2184581677111</v>
@@ -948,10 +948,10 @@
         <v>8677.966123509399</v>
       </c>
       <c r="S8">
-        <v>0.03784319106211231</v>
+        <v>0.07936178023117837</v>
       </c>
       <c r="T8">
-        <v>0.03784319106211231</v>
+        <v>0.07936178023117836</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>53.22644</v>
       </c>
       <c r="I9">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="J9">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N9">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O9">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P9">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q9">
-        <v>2169.053413700124</v>
+        <v>1080.958317601729</v>
       </c>
       <c r="R9">
-        <v>19521.48072330112</v>
+        <v>9728.62485841556</v>
       </c>
       <c r="S9">
-        <v>0.0851299848735145</v>
+        <v>0.08897026987389554</v>
       </c>
       <c r="T9">
-        <v>0.0851299848735145</v>
+        <v>0.08897026987389553</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>53.22644</v>
       </c>
       <c r="I10">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="J10">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N10">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O10">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P10">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q10">
-        <v>165.0854703703111</v>
+        <v>138.5602809880222</v>
       </c>
       <c r="R10">
-        <v>1485.7692333328</v>
+        <v>1247.0425288922</v>
       </c>
       <c r="S10">
-        <v>0.00647919664250581</v>
+        <v>0.01140445972112793</v>
       </c>
       <c r="T10">
-        <v>0.00647919664250581</v>
+        <v>0.01140445972112793</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>53.22644</v>
       </c>
       <c r="I11">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="J11">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N11">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O11">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P11">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q11">
-        <v>1333.093838635227</v>
+        <v>1095.718719099596</v>
       </c>
       <c r="R11">
-        <v>11997.84454771704</v>
+        <v>9861.468471896358</v>
       </c>
       <c r="S11">
-        <v>0.05232063793412971</v>
+        <v>0.0901851519681708</v>
       </c>
       <c r="T11">
-        <v>0.0523206379341297</v>
+        <v>0.09018515196817078</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.79134566666667</v>
+        <v>13.27534766666667</v>
       </c>
       <c r="H12">
-        <v>65.374037</v>
+        <v>39.826043</v>
       </c>
       <c r="I12">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943797</v>
       </c>
       <c r="J12">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943796</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N12">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O12">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P12">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q12">
-        <v>2218.170355714794</v>
+        <v>1153.56676068708</v>
       </c>
       <c r="R12">
-        <v>19963.53320143315</v>
+        <v>10382.10084618372</v>
       </c>
       <c r="S12">
-        <v>0.08705770343698194</v>
+        <v>0.09494644182357771</v>
       </c>
       <c r="T12">
-        <v>0.08705770343698194</v>
+        <v>0.09494644182357768</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>21.79134566666667</v>
+        <v>13.27534766666667</v>
       </c>
       <c r="H13">
-        <v>65.374037</v>
+        <v>39.826043</v>
       </c>
       <c r="I13">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943797</v>
       </c>
       <c r="J13">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943796</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>163.038635</v>
       </c>
       <c r="O13">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P13">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q13">
-        <v>1184.277084102166</v>
+        <v>721.4648542412561</v>
       </c>
       <c r="R13">
-        <v>10658.4937569195</v>
+        <v>6493.183688171304</v>
       </c>
       <c r="S13">
-        <v>0.04647994817411421</v>
+        <v>0.05938149671560713</v>
       </c>
       <c r="T13">
-        <v>0.04647994817411421</v>
+        <v>0.05938149671560711</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>21.79134566666667</v>
+        <v>13.27534766666667</v>
       </c>
       <c r="H14">
-        <v>65.374037</v>
+        <v>39.826043</v>
       </c>
       <c r="I14">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943797</v>
       </c>
       <c r="J14">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943796</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N14">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O14">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P14">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q14">
-        <v>2664.085332819709</v>
+        <v>808.8140487700119</v>
       </c>
       <c r="R14">
-        <v>23976.76799537737</v>
+        <v>7279.326438930108</v>
       </c>
       <c r="S14">
-        <v>0.1045587640452861</v>
+        <v>0.06657093342555634</v>
       </c>
       <c r="T14">
-        <v>0.1045587640452861</v>
+        <v>0.06657093342555633</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>21.79134566666667</v>
+        <v>13.27534766666667</v>
       </c>
       <c r="H15">
-        <v>65.374037</v>
+        <v>39.826043</v>
       </c>
       <c r="I15">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943797</v>
       </c>
       <c r="J15">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943796</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N15">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O15">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P15">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q15">
-        <v>202.7620793002711</v>
+        <v>103.6760622863572</v>
       </c>
       <c r="R15">
-        <v>1824.85871370244</v>
+        <v>933.0845605772148</v>
       </c>
       <c r="S15">
-        <v>0.007957910411394237</v>
+        <v>0.008533249701565784</v>
       </c>
       <c r="T15">
-        <v>0.007957910411394237</v>
+        <v>0.008533249701565783</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>21.79134566666667</v>
+        <v>13.27534766666667</v>
       </c>
       <c r="H16">
-        <v>65.374037</v>
+        <v>39.826043</v>
       </c>
       <c r="I16">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943797</v>
       </c>
       <c r="J16">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943796</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N16">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O16">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P16">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q16">
-        <v>1637.338997900505</v>
+        <v>819.8583415078185</v>
       </c>
       <c r="R16">
-        <v>14736.05098110454</v>
+        <v>7378.725073570366</v>
       </c>
       <c r="S16">
-        <v>0.06426150838134956</v>
+        <v>0.06747995432807277</v>
       </c>
       <c r="T16">
-        <v>0.06426150838134956</v>
+        <v>0.06747995432807274</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.896920666666666</v>
+        <v>3.455866</v>
       </c>
       <c r="H17">
-        <v>17.690762</v>
+        <v>10.367598</v>
       </c>
       <c r="I17">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="J17">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N17">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O17">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P17">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q17">
-        <v>600.2554781557358</v>
+        <v>300.2988883672387</v>
       </c>
       <c r="R17">
-        <v>5402.299303401622</v>
+        <v>2702.689995305148</v>
       </c>
       <c r="S17">
-        <v>0.02355854376516826</v>
+        <v>0.02471665438510275</v>
       </c>
       <c r="T17">
-        <v>0.02355854376516826</v>
+        <v>0.02471665438510274</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.896920666666666</v>
+        <v>3.455866</v>
       </c>
       <c r="H18">
-        <v>17.690762</v>
+        <v>10.367598</v>
       </c>
       <c r="I18">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="J18">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>163.038635</v>
       </c>
       <c r="O18">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P18">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q18">
-        <v>320.4752987322078</v>
+        <v>187.8132251276367</v>
       </c>
       <c r="R18">
-        <v>2884.27768858987</v>
+        <v>1690.31902614873</v>
       </c>
       <c r="S18">
-        <v>0.01257786330253077</v>
+        <v>0.01545831421378556</v>
       </c>
       <c r="T18">
-        <v>0.01257786330253077</v>
+        <v>0.01545831421378556</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.896920666666666</v>
+        <v>3.455866</v>
       </c>
       <c r="H19">
-        <v>17.690762</v>
+        <v>10.367598</v>
       </c>
       <c r="I19">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="J19">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N19">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O19">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P19">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q19">
-        <v>720.923806045575</v>
+        <v>210.5521483618113</v>
       </c>
       <c r="R19">
-        <v>6488.314254410175</v>
+        <v>1894.969335256302</v>
       </c>
       <c r="S19">
-        <v>0.02829447735863877</v>
+        <v>0.01732988326861725</v>
       </c>
       <c r="T19">
-        <v>0.02829447735863877</v>
+        <v>0.01732988326861724</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.896920666666666</v>
+        <v>3.455866</v>
       </c>
       <c r="H20">
-        <v>17.690762</v>
+        <v>10.367598</v>
       </c>
       <c r="I20">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="J20">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N20">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O20">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P20">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q20">
-        <v>54.86911703993778</v>
+        <v>26.98916726444333</v>
       </c>
       <c r="R20">
-        <v>493.82205335944</v>
+        <v>242.9025053799899</v>
       </c>
       <c r="S20">
-        <v>0.002153477214590519</v>
+        <v>0.002221393236065506</v>
       </c>
       <c r="T20">
-        <v>0.002153477214590519</v>
+        <v>0.002221393236065506</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.896920666666666</v>
+        <v>3.455866</v>
       </c>
       <c r="H21">
-        <v>17.690762</v>
+        <v>10.367598</v>
       </c>
       <c r="I21">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="J21">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N21">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O21">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P21">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q21">
-        <v>443.0776475556548</v>
+        <v>213.4272215218513</v>
       </c>
       <c r="R21">
-        <v>3987.698828000893</v>
+        <v>1920.844993696662</v>
       </c>
       <c r="S21">
-        <v>0.01738970243700049</v>
+        <v>0.01756652147269109</v>
       </c>
       <c r="T21">
-        <v>0.01738970243700049</v>
+        <v>0.01756652147269108</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>20.94549</v>
+        <v>7.175465666666668</v>
       </c>
       <c r="H22">
-        <v>62.83647</v>
+        <v>21.526397</v>
       </c>
       <c r="I22">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="J22">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>101.7913436666667</v>
+        <v>86.89540866666668</v>
       </c>
       <c r="N22">
-        <v>305.374031</v>
+        <v>260.686226</v>
       </c>
       <c r="O22">
-        <v>0.2805454758424659</v>
+        <v>0.319779657009892</v>
       </c>
       <c r="P22">
-        <v>0.2805454758424659</v>
+        <v>0.3197796570098919</v>
       </c>
       <c r="Q22">
-        <v>2132.06957085673</v>
+        <v>623.515021478636</v>
       </c>
       <c r="R22">
-        <v>19188.62613771057</v>
+        <v>5611.635193307723</v>
       </c>
       <c r="S22">
-        <v>0.0836784604610973</v>
+        <v>0.05131955490611352</v>
       </c>
       <c r="T22">
-        <v>0.0836784604610973</v>
+        <v>0.05131955490611351</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>20.94549</v>
+        <v>7.175465666666668</v>
       </c>
       <c r="H23">
-        <v>62.83647</v>
+        <v>21.526397</v>
       </c>
       <c r="I23">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="J23">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>163.038635</v>
       </c>
       <c r="O23">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="P23">
-        <v>0.1497827149446808</v>
+        <v>0.1999969065479545</v>
       </c>
       <c r="Q23">
-        <v>1138.30803300205</v>
+        <v>389.9593759275662</v>
       </c>
       <c r="R23">
-        <v>10244.77229701845</v>
+        <v>3509.634383348096</v>
       </c>
       <c r="S23">
-        <v>0.04467577654787147</v>
+        <v>0.03209632633486473</v>
       </c>
       <c r="T23">
-        <v>0.04467577654787147</v>
+        <v>0.03209632633486473</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>20.94549</v>
+        <v>7.175465666666668</v>
       </c>
       <c r="H24">
-        <v>62.83647</v>
+        <v>21.526397</v>
       </c>
       <c r="I24">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="J24">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>122.2542826666667</v>
+        <v>60.92601633333334</v>
       </c>
       <c r="N24">
-        <v>366.762848</v>
+        <v>182.778049</v>
       </c>
       <c r="O24">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="P24">
-        <v>0.3369430510399163</v>
+        <v>0.224210932487692</v>
       </c>
       <c r="Q24">
-        <v>2560.67585505184</v>
+        <v>437.172538406606</v>
       </c>
       <c r="R24">
-        <v>23046.08269546656</v>
+        <v>3934.552845659454</v>
       </c>
       <c r="S24">
-        <v>0.1005001976574997</v>
+        <v>0.03598229283233325</v>
       </c>
       <c r="T24">
-        <v>0.1005001976574997</v>
+        <v>0.03598229283233324</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>20.94549</v>
+        <v>7.175465666666668</v>
       </c>
       <c r="H25">
-        <v>62.83647</v>
+        <v>21.526397</v>
       </c>
       <c r="I25">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="J25">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.304706666666666</v>
+        <v>7.809668333333332</v>
       </c>
       <c r="N25">
-        <v>27.91412</v>
+        <v>23.429005</v>
       </c>
       <c r="O25">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="P25">
-        <v>0.02564455154382035</v>
+        <v>0.02873998867505581</v>
       </c>
       <c r="Q25">
-        <v>194.8916404396</v>
+        <v>56.03800699388722</v>
       </c>
       <c r="R25">
-        <v>1754.0247639564</v>
+        <v>504.342062944985</v>
       </c>
       <c r="S25">
-        <v>0.007649015140800645</v>
+        <v>0.004612311616698565</v>
       </c>
       <c r="T25">
-        <v>0.007649015140800645</v>
+        <v>0.004612311616698565</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>20.94549</v>
+        <v>7.175465666666668</v>
       </c>
       <c r="H26">
-        <v>62.83647</v>
+        <v>21.526397</v>
       </c>
       <c r="I26">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="J26">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>75.13712200000002</v>
+        <v>61.75795633333333</v>
       </c>
       <c r="N26">
-        <v>225.411366</v>
+        <v>185.273869</v>
       </c>
       <c r="O26">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="P26">
-        <v>0.2070842066291166</v>
+        <v>0.2272725152794058</v>
       </c>
       <c r="Q26">
-        <v>1573.78383747978</v>
+        <v>443.1420953133326</v>
       </c>
       <c r="R26">
-        <v>14164.05453731802</v>
+        <v>3988.278857819993</v>
       </c>
       <c r="S26">
-        <v>0.0617671254348178</v>
+        <v>0.03647362823386603</v>
       </c>
       <c r="T26">
-        <v>0.06176712543481779</v>
+        <v>0.03647362823386602</v>
       </c>
     </row>
   </sheetData>
